--- a/input/documents/batteries_icils_pisa_selfeff_comparison.xlsx
+++ b/input/documents/batteries_icils_pisa_selfeff_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c101f8769f4fd7d/Documentos/GitHub/milenio_nudos/picils_dse/input/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{A05D21AD-52ED-40AD-9F43-2EF93E83D2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CE597B1-76F1-4257-9698-0A41890F38F0}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="8_{A05D21AD-52ED-40AD-9F43-2EF93E83D2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{722A1BFB-A3BA-4598-8175-65D1448751D3}"/>
   <bookViews>
     <workbookView xWindow="32280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
   <si>
     <t>ICILS Code</t>
   </si>
@@ -323,6 +323,15 @@
   </si>
   <si>
     <t>install_app</t>
+  </si>
+  <si>
+    <t>PISA CFA1</t>
+  </si>
+  <si>
+    <t>PISA CFA2</t>
+  </si>
+  <si>
+    <t>ICILS CFA1</t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -445,6 +454,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,9 +781,12 @@
     <col min="6" max="6" width="54.1796875" style="2" customWidth="1"/>
     <col min="7" max="7" width="26.90625" customWidth="1"/>
     <col min="8" max="8" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -795,6 +810,15 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
@@ -816,11 +840,20 @@
       <c r="F2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="15" t="s">
         <v>97</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="58" x14ac:dyDescent="0.35">
@@ -838,11 +871,16 @@
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>79</v>
       </c>
       <c r="H3" s="15" t="s">
         <v>97</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15">
+        <v>1</v>
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -868,11 +906,20 @@
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="12" t="s">
         <v>78</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>97</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15">
+        <v>1</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -900,6 +947,13 @@
       <c r="H5" s="16" t="s">
         <v>97</v>
       </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
@@ -926,6 +980,11 @@
       <c r="H6" s="16" t="s">
         <v>97</v>
       </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16">
+        <v>1</v>
+      </c>
       <c r="O6" s="14"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
@@ -946,12 +1005,19 @@
       <c r="F7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -976,11 +1042,20 @@
       <c r="F8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="12" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>97</v>
+      </c>
+      <c r="I8" s="15">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1002,12 +1077,19 @@
       <c r="F9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="12" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="I9" s="15">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <v>1</v>
+      </c>
+      <c r="K9" s="15"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1032,11 +1114,20 @@
       <c r="F10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="12" t="s">
         <v>83</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>97</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1058,11 +1149,20 @@
       <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="12" t="s">
         <v>84</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>96</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>1</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="41" customHeight="1" x14ac:dyDescent="0.35">
@@ -1084,11 +1184,20 @@
       <c r="F12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>94</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="29" x14ac:dyDescent="0.35">
@@ -1112,6 +1221,11 @@
       <c r="H13" s="15" t="s">
         <v>94</v>
       </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
+        <v>1</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1138,6 +1252,11 @@
       <c r="H14" s="15" t="s">
         <v>94</v>
       </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
@@ -1163,6 +1282,15 @@
       </c>
       <c r="H15" s="15" t="s">
         <v>96</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>1</v>
       </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1190,6 +1318,11 @@
       <c r="H16" s="15" t="s">
         <v>96</v>
       </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15">
+        <v>1</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1220,6 +1353,15 @@
       <c r="H17" s="15" t="s">
         <v>97</v>
       </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>1</v>
+      </c>
+      <c r="K17" s="15">
+        <v>1</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1246,6 +1388,13 @@
       <c r="H18" s="15" t="s">
         <v>95</v>
       </c>
+      <c r="I18" s="15">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1272,6 +1421,13 @@
       <c r="H19" s="15" t="s">
         <v>95</v>
       </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1298,6 +1454,13 @@
       <c r="H20" s="15" t="s">
         <v>95</v>
       </c>
+      <c r="I20" s="15">
+        <v>1</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
